--- a/log/log_201608040126_黄志高.xlsx
+++ b/log/log_201608040126_黄志高.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\新建文件夹\TANWANLANYUE\src\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黄志高\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BCE4BAD-0965-452D-8165-1A9CEBB91AA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF1290-8FD6-405C-9EDA-876D5CD041B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -355,6 +355,34 @@
   </si>
   <si>
     <t>着手完成配置管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置jenkins并创建账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功配置jira环境并建立小组用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分项目总结文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -431,6 +459,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -870,6 +899,52 @@
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
